--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.5555828703260932</v>
+        <v>4.555582851477638</v>
       </c>
       <c r="C2">
-        <v>10.240660118357608</v>
+        <v>10.240660104042961</v>
       </c>
       <c r="D2">
-        <v>2.3481086005341529</v>
+        <v>2.3481085772651884</v>
       </c>
       <c r="E2">
-        <v>13.055382035596269</v>
+        <v>13.055382014095132</v>
       </c>
       <c r="F2">
-        <v>-6.2406330807414792</v>
+        <v>-6.2406330866064765</v>
       </c>
       <c r="G2">
-        <v>9.4931836392436697</v>
+        <v>9.4931836214408474</v>
       </c>
       <c r="H2">
-        <v>9.4843954980828258</v>
+        <v>9.4843954822915606</v>
       </c>
       <c r="I2">
-        <v>6.7460330612709392</v>
+        <v>6.7460330478946968</v>
       </c>
       <c r="J2">
-        <v>9.9626797277728567</v>
+        <v>9.96267971077895</v>
       </c>
       <c r="K2">
-        <v>14.888314651644027</v>
+        <v>14.88831463480623</v>
       </c>
       <c r="L2">
-        <v>10.578893596752726</v>
+        <v>10.57889358193834</v>
       </c>
       <c r="N2">
-        <v>13.764695653595046</v>
+        <v>13.764695628715756</v>
       </c>
       <c r="O2">
-        <v>5.2025084501327017</v>
+        <v>5.202508434153275</v>
       </c>
       <c r="P2">
-        <v>8.9452130965829131</v>
+        <v>8.945213071324579</v>
       </c>
       <c r="Q2">
-        <v>12.946921398438773</v>
+        <v>12.946921382273105</v>
       </c>
       <c r="S2">
-        <v>6.7045243269932842</v>
+        <v>6.7045243213307124</v>
       </c>
       <c r="V2">
-        <v>11.143676718953422</v>
+        <v>11.143676701191373</v>
       </c>
       <c r="W2">
-        <v>2.7747095711959271</v>
+        <v>2.7747095553611789</v>
       </c>
       <c r="X2">
-        <v>14.232400449798652</v>
+        <v>14.232400434462415</v>
       </c>
       <c r="AA2">
-        <v>9.7234229817086781</v>
+        <v>9.7234229671246268</v>
       </c>
       <c r="AB2">
-        <v>11.106824798304125</v>
+        <v>11.106824786148653</v>
       </c>
       <c r="AC2">
-        <v>8.5935753914609929</v>
+        <v>8.5935753734952307</v>
       </c>
       <c r="AD2">
-        <v>11.48485287407445</v>
+        <v>11.48485284498453</v>
       </c>
       <c r="AE2">
-        <v>15.907476103004864</v>
+        <v>15.907476100342985</v>
       </c>
       <c r="AF2">
-        <v>11.723763539694637</v>
+        <v>11.723763532065707</v>
       </c>
       <c r="AG2">
-        <v>9.2611880037511263</v>
+        <v>9.2611879821655467</v>
       </c>
       <c r="AH2">
-        <v>8.2255746511797909</v>
+        <v>8.2255746356529844</v>
       </c>
       <c r="AI2">
-        <v>1.3882824351675513</v>
+        <v>1.3882824247452203</v>
       </c>
       <c r="AJ2">
-        <v>7.6680245015817521</v>
+        <v>7.6680244863767495</v>
       </c>
       <c r="AK2">
-        <v>9.8754283809518508</v>
+        <v>9.8754283676818346</v>
       </c>
       <c r="AL2">
-        <v>14.523748876493038</v>
+        <v>14.523748854349661</v>
       </c>
       <c r="AM2">
-        <v>10.749622398374441</v>
+        <v>10.749622376131938</v>
       </c>
       <c r="AN2">
-        <v>11.540040208903319</v>
+        <v>11.540040183886061</v>
       </c>
       <c r="AO2">
-        <v>15.881464904875445</v>
+        <v>15.88146487998247</v>
       </c>
       <c r="AQ2">
-        <v>10.303267844679532</v>
+        <v>10.303267829789519</v>
       </c>
       <c r="AR2">
-        <v>10.372524001940079</v>
+        <v>10.372524000959309</v>
       </c>
       <c r="AS2">
-        <v>12.090469699303389</v>
+        <v>12.090469686943397</v>
       </c>
       <c r="AU2">
-        <v>9.243204428421258</v>
+        <v>9.2432044165011398</v>
       </c>
       <c r="AV2">
-        <v>6.8903938582783448</v>
+        <v>6.890393830350459</v>
       </c>
       <c r="AW2">
-        <v>11.955067355487101</v>
+        <v>11.955067337226421</v>
       </c>
       <c r="AX2">
-        <v>16.457288941191784</v>
+        <v>16.457288920363524</v>
       </c>
       <c r="AY2">
-        <v>13.303646599981436</v>
+        <v>13.303646577180814</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.8346558542244082</v>
+        <v>5.8346558381514431</v>
       </c>
       <c r="C3">
-        <v>9.2799913635052977</v>
+        <v>9.2799913512280945</v>
       </c>
       <c r="E3">
-        <v>19.233955893021825</v>
+        <v>19.233955888421018</v>
       </c>
       <c r="F3">
-        <v>2.2132650714428883</v>
+        <v>2.2132650573472263</v>
       </c>
       <c r="G3">
-        <v>11.005158493176822</v>
+        <v>11.005158482477601</v>
       </c>
       <c r="H3">
-        <v>10.253845136978898</v>
+        <v>10.253845116584955</v>
       </c>
       <c r="J3">
-        <v>11.438900914743572</v>
+        <v>11.438900898374559</v>
       </c>
       <c r="K3">
-        <v>0.69052675461311874</v>
+        <v>0.69052673804191056</v>
       </c>
       <c r="L3">
-        <v>12.395245545594376</v>
+        <v>12.395245534988589</v>
       </c>
       <c r="M3">
-        <v>9.5587762782722852</v>
+        <v>9.5587223918230126</v>
       </c>
       <c r="N3">
-        <v>10.823118344604937</v>
+        <v>10.823118328222147</v>
       </c>
       <c r="P3">
-        <v>27.828157635968321</v>
+        <v>27.828157616768706</v>
       </c>
       <c r="Q3">
-        <v>7.9633800425206447</v>
+        <v>7.9633800257621328</v>
       </c>
       <c r="R3">
-        <v>6.9618138048366172</v>
+        <v>6.9618137825703004</v>
       </c>
       <c r="W3">
-        <v>8.5480720468464977</v>
+        <v>8.5480720206764946</v>
       </c>
       <c r="AA3">
-        <v>10.600630487910122</v>
+        <v>10.600630463031901</v>
       </c>
       <c r="AB3">
-        <v>9.3193224233722969</v>
+        <v>9.3193224135122055</v>
       </c>
       <c r="AC3">
-        <v>14.672656092432792</v>
+        <v>14.672656072442203</v>
       </c>
       <c r="AD3">
-        <v>18.02212913257538</v>
+        <v>18.022129111024139</v>
       </c>
       <c r="AE3">
-        <v>13.747577290564983</v>
+        <v>13.747577283171051</v>
       </c>
       <c r="AF3">
-        <v>12.818541827390304</v>
+        <v>12.818541823027774</v>
       </c>
       <c r="AG3">
-        <v>8.6514538114424795</v>
+        <v>8.6514537952659598</v>
       </c>
       <c r="AH3">
-        <v>9.746078413243362</v>
+        <v>9.7460784052252905</v>
       </c>
       <c r="AI3">
-        <v>11.381016691097727</v>
+        <v>11.381016674200611</v>
       </c>
       <c r="AJ3">
-        <v>14.336240654404609</v>
+        <v>14.336240633980168</v>
       </c>
       <c r="AK3">
-        <v>11.067654315424223</v>
+        <v>11.067654301387861</v>
       </c>
       <c r="AL3">
-        <v>12.7629068368723</v>
+        <v>12.762906821092912</v>
       </c>
       <c r="AM3">
-        <v>8.7392695732652932</v>
+        <v>8.7392695474277513</v>
       </c>
       <c r="AN3">
-        <v>5.8348054649748304</v>
+        <v>5.8348054437122574</v>
       </c>
       <c r="AO3">
-        <v>6.5387602053435145</v>
+        <v>6.5387601814414165</v>
       </c>
       <c r="AP3">
-        <v>12.156910520505978</v>
+        <v>12.156910506494148</v>
       </c>
       <c r="AQ3">
-        <v>11.511900778380959</v>
+        <v>11.511900760862883</v>
       </c>
       <c r="AS3">
-        <v>9.402728054081507</v>
+        <v>9.4027280393357024</v>
       </c>
       <c r="AT3">
-        <v>10.974608865285903</v>
+        <v>10.974608838969869</v>
       </c>
       <c r="AU3">
-        <v>12.498118690669385</v>
+        <v>12.498118670235652</v>
       </c>
       <c r="AV3">
-        <v>10.619185272776596</v>
+        <v>10.61918523744292</v>
       </c>
       <c r="AW3">
-        <v>12.919966200843417</v>
+        <v>12.919966181190443</v>
       </c>
       <c r="AX3">
-        <v>28.996440788994732</v>
+        <v>28.996440774424276</v>
       </c>
       <c r="AY3">
-        <v>20.263640495301086</v>
+        <v>20.263640481850761</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,253 +401,265 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.555582851477638</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.240660104042961</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.3481085772651884</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>13.055382014095132</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.2406330866064765</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.4931836214408474</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9.4843954822915606</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.7460330478946968</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.96267971077895</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.88831463480623</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>10.57889358193834</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.764695628715756</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.202508434153275</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>8.945213071324579</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.946921382273105</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.7045243213307124</v>
+        <v>6.7045127932618378</v>
       </c>
       <c r="V2">
-        <v>11.143676701191373</v>
+        <v>11.143664035927213</v>
       </c>
       <c r="W2">
-        <v>2.7747095553611789</v>
+        <v>2.7746965015097023</v>
       </c>
       <c r="X2">
-        <v>14.232400434462415</v>
+        <v>14.232416128609149</v>
       </c>
       <c r="AA2">
-        <v>9.7234229671246268</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>11.106824786148653</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.5935753734952307</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>11.48485284498453</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>15.907476100342985</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.723763532065707</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>9.2611879821655467</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>8.2255746356529844</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.3882824247452203</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.6680244863767495</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>9.8754283676818346</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.523748854349661</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>10.749622376131938</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>11.540040183886061</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>15.88146487998247</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>10.303267829789519</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.372524000959309</v>
+        <v>10.372511856200711</v>
       </c>
       <c r="AS2">
-        <v>12.090469686943397</v>
+        <v>12.090456885999933</v>
       </c>
       <c r="AU2">
-        <v>9.2432044165011398</v>
+        <v>9.2431920573750528</v>
       </c>
       <c r="AV2">
         <v>6.890393830350459</v>
       </c>
       <c r="AW2">
-        <v>11.955067337226421</v>
+        <v>11.95508226553555</v>
       </c>
       <c r="AX2">
-        <v>16.457288920363524</v>
+        <v>16.457307563398082</v>
       </c>
       <c r="AY2">
         <v>13.303646577180814</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.8346558381514431</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.2799913512280945</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19.233955888421018</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.2132650573472263</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.005158482477601</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.253845116584955</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.438900898374559</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.69052673804191056</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.395245534988589</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.5587223918230126</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10.823118328222147</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>27.828157616768706</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.9633800257621328</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.9618137825703004</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>8.5480720206764946</v>
+        <v>8.5480587873903566</v>
       </c>
       <c r="AA3">
-        <v>10.600630463031901</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>9.3193224135122055</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>14.672656072442203</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>18.022129111024139</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.747577283171051</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.818541823027774</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>8.6514537952659598</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.7460784052252905</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>11.381016674200611</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>14.336240633980168</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>11.067654301387861</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>12.762906821092912</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.7392695474277513</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.8348054437122574</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>6.5387601814414165</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.156910506494148</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.511900760862883</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>9.4027280393357024</v>
       </c>
       <c r="AT3">
-        <v>10.974608838969869</v>
+        <v>10.974593448791198</v>
       </c>
       <c r="AU3">
-        <v>12.498118670235652</v>
+        <v>12.498104846607053</v>
       </c>
       <c r="AV3">
-        <v>10.61918523744292</v>
+        <v>10.619199073802424</v>
       </c>
       <c r="AW3">
-        <v>12.919966181190443</v>
+        <v>12.919950827443669</v>
       </c>
       <c r="AX3">
-        <v>28.996440774424276</v>
+        <v>28.996460770826953</v>
       </c>
       <c r="AY3">
         <v>20.263640481850761</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.5555715086227311</v>
-      </c>
-      <c r="C2">
-        <v>10.890927037202575</v>
+        <v>5.2025224677145037</v>
       </c>
       <c r="D2">
-        <v>2.3481086005341529</v>
+        <v>11.54005608882097</v>
       </c>
       <c r="E2">
-        <v>16.91593085987029</v>
+        <v>10.303267829789519</v>
       </c>
       <c r="F2">
         <v>-6.2406453602009266</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5.8346558542244082</v>
-      </c>
       <c r="C3">
-        <v>11.93678114721131</v>
+        <v>6.9618007501512436</v>
+      </c>
+      <c r="D3">
+        <v>5.8348200070450318</v>
       </c>
       <c r="E3">
-        <v>19.233937358315625</v>
+        <v>11.575310008874508</v>
       </c>
       <c r="F3">
         <v>2.213278775239568</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.5555715086227311</v>
+        <v>-0.7154229613570755</v>
       </c>
       <c r="C2">
-        <v>10.890927037202575</v>
+        <v>5.2025224677145037</v>
       </c>
       <c r="D2">
-        <v>2.3481086005341529</v>
+        <v>6.8414277798401288</v>
       </c>
       <c r="E2">
-        <v>16.91593085987029</v>
+        <v>11.54005608882097</v>
       </c>
       <c r="F2">
         <v>-6.2406453602009266</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.8346558542244082</v>
-      </c>
-      <c r="C3">
-        <v>11.93678114721131</v>
+        <v>-6.2126054779321409</v>
+      </c>
+      <c r="D3">
+        <v>14.078340384993421</v>
       </c>
       <c r="E3">
-        <v>19.233937358315625</v>
+        <v>5.8348200070450318</v>
       </c>
       <c r="F3">
         <v>2.213278775239568</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.5555714897742776</v>
+      </c>
+      <c r="C2">
+        <v>10.89092702280349</v>
+      </c>
+      <c r="D2">
+        <v>2.3481085772651884</v>
+      </c>
+      <c r="E2">
+        <v>16.915930837634942</v>
+      </c>
+      <c r="F2">
+        <v>-6.2406453660659231</v>
+      </c>
+      <c r="G2">
+        <v>9.4931693363691174</v>
+      </c>
+      <c r="H2">
+        <v>9.4844092240083242</v>
+      </c>
+      <c r="I2">
+        <v>6.7460218705881649</v>
+      </c>
+      <c r="J2">
+        <v>9.962693029135341</v>
+      </c>
+      <c r="K2">
+        <v>14.888328974063796</v>
+      </c>
+      <c r="L2">
+        <v>10.578880429919552</v>
+      </c>
+      <c r="N2">
         <v>-0.7154229613570755</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>5.2025224677145037</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>8.945213071324579</v>
+      </c>
+      <c r="Q2">
+        <v>26.037240875290813</v>
+      </c>
+      <c r="S2">
+        <v>6.7045127932618378</v>
+      </c>
+      <c r="V2">
+        <v>11.143664035927213</v>
+      </c>
+      <c r="W2">
+        <v>2.7746965015097023</v>
+      </c>
+      <c r="X2">
+        <v>14.232416128609149</v>
+      </c>
+      <c r="AA2">
+        <v>9.7234352609458661</v>
+      </c>
+      <c r="AB2">
+        <v>0.246218029915136</v>
+      </c>
+      <c r="AC2">
+        <v>8.5935903433771657</v>
+      </c>
+      <c r="AD2">
+        <v>8.18258303302221</v>
+      </c>
+      <c r="AE2">
+        <v>15.907476100342985</v>
+      </c>
+      <c r="AF2">
+        <v>11.723749139042072</v>
+      </c>
+      <c r="AG2">
+        <v>9.2611879821655467</v>
+      </c>
+      <c r="AH2">
+        <v>8.2255632550673621</v>
+      </c>
+      <c r="AI2">
+        <v>1.3882702718737157</v>
+      </c>
+      <c r="AJ2">
+        <v>7.6680375047612506</v>
+      </c>
+      <c r="AK2">
+        <v>9.8754412273854406</v>
+      </c>
+      <c r="AL2">
+        <v>14.523748854349661</v>
+      </c>
+      <c r="AM2">
         <v>6.8414277798401288</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>11.54005608882097</v>
       </c>
-      <c r="F2">
-        <v>-6.2406453602009266</v>
-      </c>
-      <c r="G2">
-        <v>9.4931693541719397</v>
-      </c>
-      <c r="H2">
-        <v>9.4844092397995912</v>
-      </c>
-      <c r="I2">
-        <v>6.7460218839644082</v>
-      </c>
-      <c r="J2">
-        <v>9.9626930461292496</v>
-      </c>
-      <c r="K2">
-        <v>14.888328990901597</v>
-      </c>
-      <c r="L2">
-        <v>10.578880444733937</v>
-      </c>
-      <c r="N2">
-        <v>-0.71542293964445514</v>
-      </c>
-      <c r="O2">
-        <v>5.2025224836939339</v>
-      </c>
-      <c r="P2">
-        <v>8.9452130965829131</v>
-      </c>
-      <c r="Q2">
-        <v>26.037240893330054</v>
-      </c>
-      <c r="S2">
-        <v>6.7045127989244087</v>
-      </c>
-      <c r="V2">
-        <v>11.14366405368926</v>
-      </c>
-      <c r="W2">
-        <v>2.7746965173444478</v>
-      </c>
-      <c r="X2">
-        <v>14.232416143945386</v>
-      </c>
-      <c r="AA2">
-        <v>9.7234352755299174</v>
-      </c>
-      <c r="AB2">
-        <v>0.24621804088241986</v>
-      </c>
-      <c r="AC2">
-        <v>8.5935903613429296</v>
-      </c>
-      <c r="AD2">
-        <v>8.1825830612504635</v>
-      </c>
-      <c r="AE2">
-        <v>15.907476103004864</v>
-      </c>
-      <c r="AF2">
-        <v>11.723749146671002</v>
-      </c>
-      <c r="AG2">
-        <v>9.2611880037511263</v>
-      </c>
-      <c r="AH2">
-        <v>8.2255632705941686</v>
-      </c>
-      <c r="AI2">
-        <v>1.3882702822960455</v>
-      </c>
-      <c r="AJ2">
-        <v>7.6680375199662558</v>
-      </c>
-      <c r="AK2">
-        <v>9.8754412406554586</v>
-      </c>
-      <c r="AL2">
-        <v>14.523748876493038</v>
-      </c>
-      <c r="AM2">
-        <v>6.8414278012977254</v>
-      </c>
-      <c r="AN2">
-        <v>11.540056113838231</v>
-      </c>
       <c r="AO2">
-        <v>15.881464904875445</v>
+        <v>15.88146487998247</v>
       </c>
       <c r="AQ2">
-        <v>10.303267844679532</v>
+        <v>10.303267829789519</v>
       </c>
       <c r="AR2">
-        <v>10.372511857181481</v>
+        <v>10.372511856200711</v>
       </c>
       <c r="AS2">
-        <v>12.090456898359925</v>
+        <v>12.090456885999933</v>
       </c>
       <c r="AU2">
-        <v>9.2431920692951675</v>
+        <v>9.2431920573750528</v>
       </c>
       <c r="AV2">
-        <v>6.8903938582783448</v>
+        <v>6.890393830350459</v>
       </c>
       <c r="AW2">
-        <v>11.955082283796232</v>
+        <v>11.95508226553555</v>
       </c>
       <c r="AX2">
-        <v>16.457307584226342</v>
+        <v>16.457307563398082</v>
       </c>
       <c r="AY2">
-        <v>13.303646599981436</v>
+        <v>13.303646577180814</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.8346558381514431</v>
+      </c>
+      <c r="C3">
+        <v>11.936781134635625</v>
+      </c>
+      <c r="E3">
+        <v>19.233937353714818</v>
+      </c>
+      <c r="F3">
+        <v>2.2132787611439042</v>
+      </c>
+      <c r="G3">
+        <v>11.005143809507494</v>
+      </c>
+      <c r="H3">
+        <v>10.253859367821411</v>
+      </c>
+      <c r="J3">
+        <v>12.35735115686921</v>
+      </c>
+      <c r="K3">
+        <v>0.69052673804191056</v>
+      </c>
+      <c r="L3">
+        <v>12.39525865523826</v>
+      </c>
+      <c r="M3">
+        <v>9.5587223918230126</v>
+      </c>
+      <c r="N3">
         <v>-6.2126054779321409</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>27.828139149067088</v>
+      </c>
+      <c r="Q3">
+        <v>7.9633912337616604</v>
+      </c>
+      <c r="R3">
+        <v>6.9618007501512436</v>
+      </c>
+      <c r="W3">
+        <v>8.4427875214027956</v>
+      </c>
+      <c r="AA3">
+        <v>10.600618296553519</v>
+      </c>
+      <c r="AB3">
+        <v>8.308084183575918</v>
+      </c>
+      <c r="AC3">
+        <v>14.67267249035635</v>
+      </c>
+      <c r="AD3">
+        <v>18.022129111024139</v>
+      </c>
+      <c r="AE3">
+        <v>13.747560967232628</v>
+      </c>
+      <c r="AF3">
+        <v>12.818526842407902</v>
+      </c>
+      <c r="AG3">
+        <v>8.6514537952659598</v>
+      </c>
+      <c r="AH3">
+        <v>9.6940200663860114</v>
+      </c>
+      <c r="AI3">
+        <v>12.008309712025101</v>
+      </c>
+      <c r="AJ3">
+        <v>14.336226037711983</v>
+      </c>
+      <c r="AK3">
+        <v>11.067667166177667</v>
+      </c>
+      <c r="AL3">
+        <v>12.762906821092912</v>
+      </c>
+      <c r="AM3">
         <v>14.078340384993421</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.8348200070450318</v>
       </c>
-      <c r="F3">
-        <v>2.213278775239568</v>
-      </c>
-      <c r="G3">
-        <v>11.005143820206714</v>
-      </c>
-      <c r="H3">
-        <v>10.253859388215357</v>
-      </c>
-      <c r="J3">
-        <v>12.357351173373132</v>
-      </c>
-      <c r="K3">
-        <v>0.69052675461311874</v>
-      </c>
-      <c r="L3">
-        <v>12.395258665844047</v>
-      </c>
-      <c r="M3">
-        <v>9.5587762782722852</v>
-      </c>
-      <c r="N3">
-        <v>-6.2126054640677131</v>
-      </c>
-      <c r="P3">
-        <v>27.828139168266695</v>
-      </c>
-      <c r="Q3">
-        <v>7.9633912505201732</v>
-      </c>
-      <c r="R3">
-        <v>6.9618007724175577</v>
-      </c>
-      <c r="W3">
-        <v>8.4427875476102834</v>
-      </c>
-      <c r="AA3">
-        <v>10.600618321431735</v>
-      </c>
-      <c r="AB3">
-        <v>8.3080841933448024</v>
-      </c>
-      <c r="AC3">
-        <v>14.672672510346944</v>
-      </c>
-      <c r="AD3">
-        <v>18.02212913257538</v>
-      </c>
-      <c r="AE3">
-        <v>13.747560974626557</v>
-      </c>
-      <c r="AF3">
-        <v>12.818526846770432</v>
-      </c>
-      <c r="AG3">
-        <v>8.6514538114424795</v>
-      </c>
-      <c r="AH3">
-        <v>9.6940200727970218</v>
-      </c>
-      <c r="AI3">
-        <v>12.008309729017382</v>
-      </c>
-      <c r="AJ3">
-        <v>14.33622605813642</v>
-      </c>
-      <c r="AK3">
-        <v>11.067667180214032</v>
-      </c>
-      <c r="AL3">
-        <v>12.7629068368723</v>
-      </c>
-      <c r="AM3">
-        <v>14.07834041209958</v>
-      </c>
-      <c r="AN3">
-        <v>5.8348200283076075</v>
-      </c>
       <c r="AO3">
-        <v>6.5387602053435145</v>
+        <v>6.5387601814414165</v>
       </c>
       <c r="AP3">
-        <v>12.156922626283214</v>
+        <v>12.156922612271384</v>
       </c>
       <c r="AQ3">
-        <v>11.575310029121827</v>
+        <v>11.575310008874508</v>
       </c>
       <c r="AS3">
-        <v>9.402728054081507</v>
+        <v>9.4027280393357024</v>
       </c>
       <c r="AT3">
-        <v>10.974593475107229</v>
+        <v>10.974593448791198</v>
       </c>
       <c r="AU3">
-        <v>12.498104867040784</v>
+        <v>12.498104846607053</v>
       </c>
       <c r="AV3">
-        <v>10.619199109136106</v>
+        <v>10.619199073802424</v>
       </c>
       <c r="AW3">
-        <v>12.91995084709664</v>
+        <v>12.919950827443669</v>
       </c>
       <c r="AX3">
-        <v>28.99646078539741</v>
+        <v>28.996460770826953</v>
       </c>
       <c r="AY3">
-        <v>20.263640495301086</v>
+        <v>20.263640481850761</v>
       </c>
     </row>
   </sheetData>
